--- a/input/phages.xlsx
+++ b/input/phages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="18480" windowHeight="8080"/>
+    <workbookView activeTab="0" windowWidth="16080" windowHeight="7780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="44">
+  <si>
+    <t>Isolate</t>
+  </si>
   <si>
     <t>ingroup</t>
   </si>
@@ -33,49 +36,52 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Surface</t>
-  </si>
-  <si>
     <t>Environmental;Aquatic;Marine;</t>
   </si>
   <si>
     <t>Isolate taxonomy</t>
   </si>
   <si>
-    <t>BATS</t>
-  </si>
-  <si>
-    <t>100 m</t>
-  </si>
-  <si>
-    <t>[34]</t>
+    <t>North Atlantic Ocean (BATS)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1462-2920.12053</t>
   </si>
   <si>
     <t>Synechococcus sp. WH7803</t>
   </si>
   <si>
-    <t>Chesapeake Bay</t>
-  </si>
-  <si>
-    <t>[40]</t>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp000063505</t>
+  </si>
+  <si>
+    <t>North Atlantic Ocean (Chesapeake Bay)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0142962</t>
   </si>
   <si>
     <t>Synechococcus sp. WH8109</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000161795</t>
+  </si>
+  <si>
     <t>Sargasso Sea</t>
   </si>
   <si>
     <t>Red Sea</t>
   </si>
   <si>
+    <t>MAG</t>
+  </si>
+  <si>
     <t>Indian Ocean</t>
   </si>
   <si>
-    <t>Pacific Ocean</t>
+    <t>https://doi.org/10.1016/j.cell.2019.03.040</t>
+  </si>
+  <si>
+    <t>SAG</t>
   </si>
   <si>
     <t>Provirus</t>
@@ -84,70 +90,73 @@
     <t>Prophage</t>
   </si>
   <si>
-    <t>A2</t>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Vulcanococcus;s__</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Prochlorococcus sp. NATL2A</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_B;s__Prochlorococcus_B marinus_B</t>
+  </si>
+  <si>
     <t>Prochlorococcus sp. MIT9515</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_P</t>
   </si>
   <si>
     <t>Prochlorococcus sp. MED4</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A pastoris</t>
+  </si>
+  <si>
+    <t>North Atlantic Ocean</t>
+  </si>
+  <si>
     <t>Prochlorococcus sp. MIT9312</t>
   </si>
   <si>
-    <t>DCM</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_L</t>
+  </si>
+  <si>
+    <t>South China Sea</t>
   </si>
   <si>
     <t>Synechococcus sp. CB0101</t>
   </si>
   <si>
+    <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Vulcanococcus;s__Vulcanococcus sp000179235</t>
+  </si>
+  <si>
     <t>Environmental;Aquatic;Freshwater;</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>South China Sea</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/s41396-022-01340-6</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Station78_SUR_ALL_NODE_230</t>
-  </si>
-  <si>
-    <t>E</t>
+    <t>Ga0063588_100037_PP</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t>outgroup</t>
   </si>
   <si>
     <t>Candidatus Pelagibacter ubique HTCC1062</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/nature11921</t>
   </si>
 </sst>
 </file>
@@ -210,20 +219,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" style="0" width="9.142307692307693"/>
     <col min="2" max="2" style="0" width="16.141887019230772" customWidth="1"/>
-    <col min="3" max="4" style="0" width="9.142307692307693"/>
-    <col min="5" max="6" style="0" width="12.142127403846155" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" style="0" width="29.712500000000002" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" style="0" width="9.142307692307693"/>
+    <col min="3" max="3" style="0" width="13.284915865384617" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" style="0" width="13.284915865384617" customWidth="1"/>
+    <col min="5" max="6" style="0" width="9.142307692307693"/>
+    <col min="7" max="7" style="0" width="12.142127403846155" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" style="0" width="11.28503605769231" customWidth="1"/>
+    <col min="9" max="9" style="0" width="22.141526442307693" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" style="0" width="29.85534855769231" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" style="0" width="53.56820913461539" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5">
@@ -234,42 +248,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Source type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accession</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Alias</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Clade</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Subclade</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Host</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Host strain taxonomy</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Isolation site</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Depth</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Accession</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -302,43 +316,45 @@
           <t>P60</t>
         </is>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NC_003390</t>
+        </is>
       </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Synechococcus sp. WH7805</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp000153285</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Satilla River Estuary</t>
         </is>
       </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NC_003390</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[39]</t>
+          <t>https://doi.org/10.1128/aem.68.5.2589-2594.2002</t>
         </is>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="13.5">
@@ -350,44 +366,46 @@
           <t>P-SSP9</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NC_020872</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SS120-1</t>
         </is>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
       <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prochlorococcus sp. SS120</t>
         </is>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus;s__Prochlorococcus marinus</t>
+        </is>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NC_020872</t>
-        </is>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.5">
@@ -399,37 +417,37 @@
           <t>S-CBP42</t>
         </is>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NC_029031</t>
+        </is>
       </c>
       <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NC_029031</t>
-        </is>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.5">
@@ -441,39 +459,39 @@
           <t>Syn5</t>
         </is>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NC_009531</t>
+        </is>
       </c>
       <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NC_009531</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[41]</t>
+          <t>https://doi.org/10.1016/j.jmb.2007.02.046</t>
         </is>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.5">
@@ -485,33 +503,43 @@
           <t>S-TIP28</t>
         </is>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MZ803112</t>
+        </is>
       </c>
       <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Synechococcus sp. CC9605</t>
         </is>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp000012625</t>
+        </is>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>MZ803112</t>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/nuccore/MZ803112</t>
         </is>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="13.5">
@@ -523,28 +551,28 @@
           <t>St46_SUR_ALL_NODE_265</t>
         </is>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Station46_SUR_ALL_NODE_265</t>
+        </is>
       </c>
       <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Station46_SUR_ALL_NODE_265</t>
-        </is>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13.5">
@@ -556,41 +584,48 @@
           <t>AG-670-B23_PP</t>
         </is>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>IMGVR_UViG_2716884610_000003_1</t>
+        </is>
       </c>
       <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Synechococcus sp. AG-670-B23</t>
         </is>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5 m</t>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Parasynechococcus;s__Parasynechococcus sp003209165</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>IMGVR_UViG_2716884610_000003_1</t>
+          <t>Pacific Ocean</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/sdata.2018.154</t>
         </is>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13.5">
@@ -602,39 +637,39 @@
           <t>S-CBP2</t>
         </is>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NC_025455</t>
+        </is>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Synechococcus sp. CB0208</t>
         </is>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NC_025455</t>
-        </is>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.5">
@@ -646,28 +681,30 @@
           <t>St125_SUR_ALL_NODE_406</t>
         </is>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Station125_SUR_ALL_NODE_406</t>
+        </is>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Station125_SUR_ALL_NODE_406</t>
-        </is>
+          <t>South Pacific Ocean</t>
+        </is>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.5">
@@ -679,46 +716,44 @@
           <t>P-HP1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NC_016659</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>NATL2A-133</t>
         </is>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>HOT</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>25 m</t>
-        </is>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NC_016659</t>
+          <t>North Pacific Ocean (HOT)</t>
         </is>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.5">
@@ -730,37 +765,37 @@
           <t>P-SSP10</t>
         </is>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NC_020835</t>
+        </is>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
       </c>
       <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>NC_020835</t>
-        </is>
-      </c>
-      <c r="K12" t="s">
-        <v>8</v>
-      </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.5">
@@ -772,48 +807,46 @@
           <t>P-SSP5</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NC_016657</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>9515-10a</t>
         </is>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>North Pacific gyre</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>12 m</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>NC_016657</t>
+          <t>North Pacific Ocean</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GenBank</t>
+          <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_016657</t>
         </is>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.5">
@@ -825,445 +858,463 @@
           <t>P-SSP6</t>
         </is>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HQ634152</t>
+        </is>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>HQ634152</t>
-        </is>
-      </c>
-      <c r="K14" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.5">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>P-GSP1</t>
         </is>
       </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NC_020878</t>
+        </is>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Gulf Stream</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>80 m</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NC_020878</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.5">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>P-RSP5</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NC_016658</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>NATL1A-7</t>
         </is>
       </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Prochlorococcus sp. NATL1A</t>
+        </is>
+      </c>
+      <c r="I16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Prochlorococcus sp. NATL1A</t>
-        </is>
-      </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>130 m</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NC_016658</t>
-        </is>
-      </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="13.5">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>P-SSP2</t>
         </is>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NC_016656</t>
+        </is>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>120 m</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NC_016656</t>
-        </is>
-      </c>
-      <c r="K17" t="s">
-        <v>8</v>
-      </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13.5">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>P-SSP3</t>
         </is>
       </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NC_020874</t>
+        </is>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NC_020874</t>
-        </is>
-      </c>
-      <c r="K18" t="s">
-        <v>8</v>
-      </c>
       <c r="L18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.5">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>P-SSP7</t>
         </is>
       </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NC_006882</t>
+        </is>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
         <v>13</v>
       </c>
-      <c r="I19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>NC_006882</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[29]</t>
+          <t>https://doi.org/10.1371/journal.pbio.0030144</t>
         </is>
       </c>
       <c r="L19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.5">
       <c r="A20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>S-TIP37</t>
         </is>
       </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NC_048026</t>
+        </is>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
         <v>12</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>14</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NC_048026</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_048026</t>
         </is>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.5">
       <c r="A21">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Ga0209404_10000255</t>
         </is>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>IMGVR_UViG_3300027906_000038_1</t>
+        </is>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Atlantic Ocean</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>IMGVR_UViG_3300027906_000038_1</t>
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://gold.jgi.doe.gov/analysis_projects?id=Ga0209404</t>
         </is>
       </c>
       <c r="L21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="13.5">
       <c r="A22">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Ga0211643_10000104</t>
         </is>
       </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>IMGVR_UViG_3300020457_000019_1</t>
+        </is>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>West Pacific Ocean</t>
         </is>
       </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>IMGVR_UViG_3300020457_000019_1</t>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://gold.jgi.doe.gov/analysis_projects?id=Ga0211643</t>
         </is>
       </c>
       <c r="L22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="13.5">
       <c r="A23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>KBS-P-1A</t>
         </is>
       </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NC_020865</t>
+        </is>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Mount Hope Bay, RI, USA</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.5 m</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>NC_020865</t>
+          <t>North Atlantic Ocean (Mount Hope Bay)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_020865</t>
         </is>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="13.5">
       <c r="A24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>S-B28</t>
         </is>
       </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NC_048171</t>
+        </is>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Synechococcus sp. KSHK05</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>NC_048171</t>
+          <t>East Pacific Ocean</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_048171</t>
         </is>
       </c>
       <c r="L24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="13.5">
@@ -1275,38 +1326,45 @@
           <t>S-RIP1</t>
         </is>
       </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NC_020867</t>
+        </is>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Synechococcus sp. WH8101</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Narragansett Bay</t>
-        </is>
-      </c>
-      <c r="I25" t="s">
-        <v>3</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Synechococcus_C;s__Synechococcus_C sp004209775</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NC_020867</t>
+          <t>North Atlantic Ocean (Narragansett Bay)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_020867</t>
         </is>
       </c>
       <c r="L25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="13.5">
@@ -1318,36 +1376,41 @@
           <t>S-RIP2</t>
         </is>
       </c>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NC_020838</t>
+        </is>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Rhode Island Sound</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>NC_020838</t>
+          <t>North Atlantic Ocean (Rhode Island Sound)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://www.ncbi.nlm.nih.gov/nuccore/NC_020838</t>
         </is>
       </c>
       <c r="L26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="13.5">
@@ -1359,597 +1422,596 @@
           <t>S-SBP1</t>
         </is>
       </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MT424636</t>
+        </is>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Sanya Bay</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>MT424636</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>https://doi.org/10.1002/mbo3.1150</t>
         </is>
       </c>
       <c r="L27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="13.5">
       <c r="A28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>S-CBP1</t>
         </is>
       </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NC_025456</t>
+        </is>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Baltimore Inner Harbor</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NC_025456</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13.5">
       <c r="A29">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>S-CBP3</t>
         </is>
       </c>
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NC_025461</t>
+        </is>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
         <v>10</v>
       </c>
-      <c r="I29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NC_025461</t>
-        </is>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
       <c r="L29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="13.5">
       <c r="A30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>S-CBP4</t>
         </is>
       </c>
-      <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NC_025464</t>
+        </is>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
         <v>10</v>
       </c>
-      <c r="I30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NC_025464</t>
-        </is>
-      </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
       <c r="L30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="13.5">
       <c r="A31">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>S-SRP01</t>
         </is>
       </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MW015080</t>
+        </is>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Synechococcus sp. KCZYR4S1</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>Singapore Serangoon Reservoir</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>MW015080</t>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1128/Spectrum.00593-21</t>
         </is>
       </c>
       <c r="L31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="13.5">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>P-SCSP1a</t>
         </is>
       </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OM416763</t>
+        </is>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>OM416763</t>
-        </is>
-      </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="13.5">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>P-SCSP2</t>
         </is>
       </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>OM416780</t>
+        </is>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" t="s">
         <v>32</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>OM416780</t>
-        </is>
-      </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="13.5">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>P-RSP2</t>
         </is>
       </c>
-      <c r="D34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>HQ332139</t>
+        </is>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Prochlorococcus sp. MIT9302</t>
         </is>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Prochlorococcus_A;s__Prochlorococcus_A marinus_M</t>
+        </is>
+      </c>
+      <c r="J34" t="s">
         <v>14</v>
       </c>
-      <c r="I34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>HQ332139</t>
-        </is>
-      </c>
       <c r="K34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="13.5">
       <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>St78_SUR_ALL_NODE_230</t>
+        </is>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Station78_SUR_ALL_NODE_230</t>
+        </is>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>South Atlantic Ocean</t>
         </is>
       </c>
-      <c r="J35" t="s">
-        <v>37</v>
+      <c r="K35" t="s">
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.5">
       <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Ga0063588_100037_PP</t>
-        </is>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
         <v>35</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>IMGVR_UViG_3300003968_000010_1</t>
+        </is>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>Ga0063588_100037</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__Cyanobium;s__Cyanobium gracile</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>Lake Erie</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>IMGVR_UViG_3300003968_000010_1</t>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://gold.jgi.doe.gov/analysis_projects?id=Ga0063588</t>
         </is>
       </c>
       <c r="L36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="13.5">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ga0335015_0000215</t>
-        </is>
-      </c>
-      <c r="D37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>38</v>
+          <t>St52_DCM_ALL_NODE_78</t>
+        </is>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Station52_DCM_ALL_NODE_78</t>
+        </is>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Lake Mendota</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>IMGVR_UViG_3300037507_002214_1</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="13.5">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>St52_DCM_ALL_NODE_78</t>
-        </is>
-      </c>
-      <c r="D38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>38</v>
+          <t>S-SRP02</t>
+        </is>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MW822601</t>
+        </is>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Synechococcus sp. SR-C1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>d__Bacteria;p__Cyanobacteriota;c__Cyanobacteriia;o__PCC-6307;f__Cyanobiaceae;g__;s__ [related to Vulcanococcus]</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Station52_DCM_ALL_NODE_78</t>
+          <t>Lake in Singapore</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fmicb.2021.768868</t>
         </is>
       </c>
       <c r="L38" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="13.5">
       <c r="A39">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S-SRP02</t>
-        </is>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
+          <t>HTVC011P</t>
+        </is>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NC_020482</t>
+        </is>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Synechococcus sp. SR-C1</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Lake in Singapore</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>MW822601</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fmicb.2021.768868</t>
-        </is>
-      </c>
-      <c r="L39" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="13.5">
       <c r="A40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HTVC011P</t>
-        </is>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NC_020482</t>
-        </is>
-      </c>
-      <c r="L40" t="s">
-        <v>4</v>
-      </c>
-      <c r="N40" t="s">
-        <v>5</v>
+          <t>HTVC019P</t>
+        </is>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NC_020483</t>
+        </is>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="13.5">
       <c r="A41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HTVC019P</t>
-        </is>
-      </c>
-      <c r="D41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NC_020483</t>
-        </is>
-      </c>
-      <c r="L41" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="13.5">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>T7</t>
         </is>
       </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NC_001604</t>
+        </is>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Escherichia coli</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NC_001604</t>
-        </is>
-      </c>
-    </row>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0022-2836(83)80282-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="13.5"/>
     <row r="43" spans="1:14" ht="13.5"/>
     <row r="44" spans="1:14" ht="13.5"/>
     <row r="45" spans="1:14" ht="13.5"/>
@@ -1958,7 +2020,6 @@
     <row r="48" spans="1:14" ht="13.5"/>
     <row r="49" spans="1:14" ht="13.5"/>
     <row r="50" spans="1:14" ht="13.5"/>
-    <row r="51" spans="1:14" ht="13.5"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
